--- a/data/output/Pedido_Semana_08_09022026_vivero.xlsx
+++ b/data/output/Pedido_Semana_08_09022026_vivero.xlsx
@@ -652,7 +652,7 @@
         <v>2</v>
       </c>
       <c r="L2" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" s="4" t="n">
         <v>29.63</v>
@@ -733,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M3" s="4" t="n">
         <v>113.2</v>
@@ -1300,7 +1300,7 @@
         <v>2</v>
       </c>
       <c r="L10" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="4" t="n">
         <v>53.12</v>
@@ -2110,7 +2110,7 @@
         <v>1</v>
       </c>
       <c r="L20" s="3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M20" s="4" t="n">
         <v>56.92</v>
@@ -2272,7 +2272,7 @@
         <v>1</v>
       </c>
       <c r="L22" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" s="4" t="n">
         <v>23.12</v>
@@ -2839,7 +2839,7 @@
         <v>1</v>
       </c>
       <c r="L29" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29" s="4" t="n">
         <v>61.85</v>
@@ -3001,7 +3001,7 @@
         <v>1</v>
       </c>
       <c r="L31" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31" s="4" t="n">
         <v>5.75</v>
@@ -3892,7 +3892,7 @@
         <v>3</v>
       </c>
       <c r="L42" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M42" s="4" t="n">
         <v>142.6</v>
@@ -4868,7 +4868,7 @@
         </is>
       </c>
       <c r="C66" s="8" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/Pedido_Semana_08_09022026_vivero.xlsx
+++ b/data/output/Pedido_Semana_08_09022026_vivero.xlsx
@@ -669,7 +669,7 @@
         <v>7</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R2" s="3" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>3</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R4" s="3" t="n">
         <v>0</v>
@@ -912,7 +912,7 @@
         <v>2</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R5" s="3" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>4</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="3" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>7</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R10" s="3" t="n">
         <v>0</v>
@@ -1560,7 +1560,7 @@
         <v>2</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R13" s="3" t="n">
         <v>0</v>
@@ -1965,7 +1965,7 @@
         <v>3</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="3" t="n">
         <v>0</v>
@@ -2127,7 +2127,7 @@
         <v>4</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R20" s="3" t="n">
         <v>0</v>
@@ -2370,7 +2370,7 @@
         <v>10</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R23" s="3" t="n">
         <v>0</v>
@@ -2937,7 +2937,7 @@
         <v>3</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R30" s="3" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         <v>3</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R36" s="3" t="n">
         <v>0</v>
@@ -3909,7 +3909,7 @@
         <v>11</v>
       </c>
       <c r="Q42" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R42" s="3" t="n">
         <v>0</v>
